--- a/util/GSManage/양식/접대비 사용내역서_박정현.xlsx
+++ b/util/GSManage/양식/접대비 사용내역서_박정현.xlsx
@@ -151,28 +151,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>(작성일자 : 2017.04.26)</t>
+    <t>(작성일자 : 2017.05.18)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2017.04.26</t>
+    <t>2017.05.17</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>남자마늘보쌈</t>
+    <t>원조대구막창일번지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>현대상선 AMP 공정 회의</t>
+    <t xml:space="preserve">박해만 부장/임동열 차장/박정현 차장 (HGS)
+ 김재범 감독/강정국 감독 (현대상선)
+ 고제범 대표 (위코)
+ 오재영 이사 (럭스코)
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">이태석 차장/김해만 부장/임동열 차장/박정현 차장 (HGS)
- 김재범 감독 (현대상선)
- 조태래 상무/이진혁 부장 (코어라인)
- 고제범 대표/정기식 부장 (위코)
- 김종대 이사/오재영 이사 (럭스코)
-</t>
+    <t>현대상선 AMP Panel FAT 실시</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1433,7 +1432,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$3:$G$6" spid="_x0000_s2224"/>
+                  <a14:cameraTool cellRange="$B$3:$G$6" spid="_x0000_s2227"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1764,7 +1763,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1824,7 +1823,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="30">
-        <v>77000</v>
+        <v>192000</v>
       </c>
       <c r="C7" s="22"/>
     </row>
@@ -1833,7 +1832,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="22"/>
     </row>
@@ -1842,7 +1841,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="25"/>
     </row>
